--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>פרק</t>
   </si>
@@ -110,9 +110,6 @@
 ESL - 15 - 587-596</t>
   </si>
   <si>
-    <t>רוב הקריאה ב ESL חוזרת על מה שהיה ב ISLR, הרבה זמן הלך לי על ההוכחה ב ESL 15.1</t>
-  </si>
-  <si>
     <t>https://quantdare.com/isolation-forest-algorithm/
 https://towardsdatascience.com/outlier-detection-with-isolation-forest-3d190448d45e</t>
   </si>
@@ -123,6 +120,17 @@
   <si>
     <t>https://medium.com/mlreview/gradient-boosting-from-scratch-1e317ae4587d
 https://towardsdatascience.com/boosting-algorithms-explained-d38f56ef3f30</t>
+  </si>
+  <si>
+    <t>רוב הקריאה ב ESL חוזרת על מה שהיה ב ISLR, הרבה זמן הלך לי על ההוכחה ב ESL 15.1
+ב ESL יש התייחסות ל GBM ולומדים עליו רק יותר מאוחר בפרק (ב boosting)</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/the-good-old-gradient-boosting-f4614b0e62b0
+https://towardsdatascience.com/xgboost-b736c2ab10ce
+מאמר: "XGBoost: A Scalable Tree Boosting System"
+https://towardsdatascience.com/lightgbm-800340f21415
+https://towardsdatascience.com/https-medium-com-talperetz24-mastering-the-new-generation-of-gradient-boosting-db04062a7ea2</t>
   </si>
 </sst>
 </file>
@@ -511,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,8 +831,8 @@
       <c r="H13">
         <v>0.5</v>
       </c>
-      <c r="I13" t="s">
-        <v>31</v>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -838,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2">
         <v>43983.563888888886</v>
@@ -853,7 +861,7 @@
         <v>0.25</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -867,10 +875,36 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2">
-        <v>43983.563888888886</v>
+        <v>43983.59652777778</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43983.673611111109</v>
+      </c>
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43983.69027777778</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
@@ -907,11 +941,12 @@
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" display="https://quantdare.com/isolation-forest-algorithm/_x000a_"/>
     <hyperlink ref="D15" r:id="rId2" display="https://medium.com/mlreview/gradient-boosting-from-scratch-1e317ae4587d"/>
+    <hyperlink ref="D16" r:id="rId3" display="https://towardsdatascience.com/the-good-old-gradient-boosting-f4614b0e62b0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>פרק</t>
   </si>
@@ -131,6 +131,12 @@
 מאמר: "XGBoost: A Scalable Tree Boosting System"
 https://towardsdatascience.com/lightgbm-800340f21415
 https://towardsdatascience.com/https-medium-com-talperetz24-mastering-the-new-generation-of-gradient-boosting-db04062a7ea2</t>
+  </si>
+  <si>
+    <t>במאמר: לפרט פרקים רלוונטים לא (למשל: ניסויים פחות מעניין). 
+בלוגפוסטים קשוחים (LIGHTGBM, CATBOOST).
+בלוגפוסט על CATBOOST שעוזר להבין את הרעיון של Ordered Boosting: http://towardsdatascience.com/catboost-d1f1366aca34
+יש סדרת סרטונים ביוטיוב (סה"כ ~100 דקות) של statquest שמסבירים XGBOOST בצורה מאד פשוטה</t>
   </si>
 </sst>
 </file>
@@ -519,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -906,6 +912,18 @@
       <c r="E16" s="2">
         <v>43983.69027777778</v>
       </c>
+      <c r="F16" s="2">
+        <v>43984.695833333331</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>פרק</t>
   </si>
@@ -137,6 +137,18 @@
 בלוגפוסטים קשוחים (LIGHTGBM, CATBOOST).
 בלוגפוסט על CATBOOST שעוזר להבין את הרעיון של Ordered Boosting: http://towardsdatascience.com/catboost-d1f1366aca34
 יש סדרת סרטונים ביוטיוב (סה"כ ~100 דקות) של statquest שמסבירים XGBOOST בצורה מאד פשוטה</t>
+  </si>
+  <si>
+    <t>נספחים</t>
+  </si>
+  <si>
+    <t>סקר ספרות</t>
+  </si>
+  <si>
+    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על Bayesian hyper parameter optimization</t>
+  </si>
+  <si>
+    <t>אולי צריך להוסיף דוגמה של סקירה כדי לדעת מה הרמה הנדרשת (אורך, פורמט וכו')</t>
   </si>
 </sst>
 </file>
@@ -525,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,10 +925,10 @@
         <v>43983.69027777778</v>
       </c>
       <c r="F16" s="2">
-        <v>43984.695833333331</v>
+        <v>43985.412499999999</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -925,32 +937,61 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43985.418055555558</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43985.710416666669</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>9</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>פרק</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>אולי צריך להוסיף דוגמה של סקירה כדי לדעת מה הרמה הנדרשת (אורך, פורמט וכו')</t>
+  </si>
+  <si>
+    <t>NYC Taxi Fare Price Prediction</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -201,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -212,10 +215,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -537,24 +540,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="66.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -600,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -617,7 +620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -634,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -657,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -680,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -703,7 +706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -726,7 +729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -749,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -772,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -798,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -824,7 +827,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -853,7 +856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -882,7 +885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -908,7 +911,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -937,7 +940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -966,32 +969,58 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43986.619444444441</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43993.469444444447</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>פרק</t>
   </si>
@@ -133,22 +133,28 @@
 https://towardsdatascience.com/https-medium-com-talperetz24-mastering-the-new-generation-of-gradient-boosting-db04062a7ea2</t>
   </si>
   <si>
-    <t>במאמר: לפרט פרקים רלוונטים לא (למשל: ניסויים פחות מעניין). 
+    <t>נספחים</t>
+  </si>
+  <si>
+    <t>סקר ספרות</t>
+  </si>
+  <si>
+    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על Bayesian hyper parameter optimization</t>
+  </si>
+  <si>
+    <t>אולי צריך להוסיף דוגמה של סקירה כדי לדעת מה הרמה הנדרשת (אורך, פורמט וכו')</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>עבודה עם הדאטה של NYC taxi fare prediction</t>
+  </si>
+  <si>
+    <t>במאמר: לפרט פרקים רלוונטים ולא רלוונטים (למשל: ניסויים פחות מעניין). 
 בלוגפוסטים קשוחים (LIGHTGBM, CATBOOST).
 בלוגפוסט על CATBOOST שעוזר להבין את הרעיון של Ordered Boosting: http://towardsdatascience.com/catboost-d1f1366aca34
 יש סדרת סרטונים ביוטיוב (סה"כ ~100 דקות) של statquest שמסבירים XGBOOST בצורה מאד פשוטה</t>
-  </si>
-  <si>
-    <t>נספחים</t>
-  </si>
-  <si>
-    <t>סקר ספרות</t>
-  </si>
-  <si>
-    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על Bayesian hyper parameter optimization</t>
-  </si>
-  <si>
-    <t>אולי צריך להוסיף דוגמה של סקירה כדי לדעת מה הרמה הנדרשת (אורך, פורמט וכו')</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -201,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -212,10 +218,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -537,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,36 +940,53 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="2">
         <v>43985.418055555558</v>
       </c>
       <c r="F17" s="2">
-        <v>43985.710416666669</v>
+        <v>43986.793055555558</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43986.59097222222</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>פרק</t>
   </si>
@@ -152,6 +152,39 @@
   </si>
   <si>
     <t>NYC Taxi Fare Price Prediction</t>
+  </si>
+  <si>
+    <t>Bishop 559-570</t>
+  </si>
+  <si>
+    <t>Bishop 6 to 6.1
+exercise 6.3
+Bishop 586-590
+https://sebastianraschka.com/Articles/2014_kernel_pca.html
+https://arxiv.org/pdf/1207.3538.pdf</t>
+  </si>
+  <si>
+    <t>יש סרטון של statquest שמסביר בצורה אינטואיטיבית את הנושא
+התחלתי לקרוא קצת במהלך העבודה על ה kaggle של העצים (בזמן הרצות) ולכן הזמנים אולי יותר ארוכים בפועל</t>
+  </si>
+  <si>
+    <t>לדעתי יותר יעיל להתחיל לקרוא מהפוסטים (בלוגים) כי נותנים שם אינטואיציה למה זה קרנל ומתי משתמשים בזה בהקשר של dimention reduction ורק אחר כך להתקדם לספר ולשאלה</t>
+  </si>
+  <si>
+    <t>https://machinelearningmedium.com/2017/07/28/random-projection-in-dimensionality-reduction/</t>
+  </si>
+  <si>
+    <t>שני המאמרים שצורפו כהעשרה הם אותו מאמר (Experiments with Ranfom Projection)
+קצת מוזר לקרוא על ההשוואה לפני שקוראים על השיטות עצמן. לדעתי הגיוני למקם את החלק הזה לאחר הקריאה על כל השיטות</t>
+  </si>
+  <si>
+    <t>https://people.eecs.berkeley.edu/~efros/courses/AP06/presentations/ThompsonDimensionalityReduction.pdf
+https://www.math.uwaterloo.ca/~aghodsib/courses/f06stat890/readings/tutorial_stat890.pdf
+http://www.robots.ox.ac.uk/~az/lectures/ml/tenenbaum-isomap-Science2000.pdf
+http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.9.5888&amp;amp%3Brep=rep1&amp;amp%3Btype=pdf</t>
+  </si>
+  <si>
+    <t>הקישור הרביעי (citeseerx) לא עובד</t>
   </si>
 </sst>
 </file>
@@ -538,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,33 +1028,144 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43993.534722222219</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43996.409722222219</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43996.412499999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43997.363888888889</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43997.365972222222</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43997.511111111111</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43997.511805555558</v>
+      </c>
+      <c r="F22" s="2">
+        <v>43998.634722222225</v>
+      </c>
+      <c r="G22">
+        <v>1.5</v>
+      </c>
+      <c r="H22">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>9</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>פרק</t>
   </si>
@@ -184,7 +184,14 @@
 http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.9.5888&amp;amp%3Brep=rep1&amp;amp%3Btype=pdf</t>
   </si>
   <si>
-    <t>הקישור הרביעי (citeseerx) לא עובד</t>
+    <t>הקישור הרביעי (citeseerx) לא עובד
+יש סדרה של 7 בלוגפוסטים ב blog.paperspace.com (מתחיל ב PCA, מיגע עד IsoMap ו autoencoders) *לא קראתי autoencoders</t>
+  </si>
+  <si>
+    <t>לנסות כמה שיטות להורדת מימדים על MNIST</t>
+  </si>
+  <si>
+    <t>בוצע במקום kaggle שהדאטה שלו לא זמין</t>
   </si>
 </sst>
 </file>
@@ -573,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,16 +1139,30 @@
         <v>43997.511805555558</v>
       </c>
       <c r="F22" s="2">
-        <v>43998.634722222225</v>
+        <v>43998.734027777777</v>
       </c>
       <c r="G22">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H22">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43999.332638888889</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>פרק</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>בוצע במקום kaggle שהדאטה שלו לא זמין</t>
+  </si>
+  <si>
+    <t>ISLR 337-359
+שאלות 3,6 ועוד כמה מההוראות בדרייב</t>
+  </si>
+  <si>
+    <t>תרגיל 6 ב ISLR מרגיש מיותר ומנסה להעביר נקודה שדי פשוט להבין מהקריאה עצמה
+ב Part 4 ב drive יוצא (לי, אולי אני בעייתי) ששני המודלים מסווגים הכל כ-0 בגלל שהדאטה לא מאוזן.</t>
+  </si>
+  <si>
+    <t>deep learning 5.6
+Bishop 3.3-3.3.1
+חלק כלשהו מהקורס ב MIT
+Intoduction to Probability 8</t>
+  </si>
+  <si>
+    <t>עדיף להתחיל מקריאה של הבלוג פוסטים לפני שנכנסים לקריאה בספרים (שרובה הרגישה לא הכי חיונית). 
+אם אפשר כדאי (לדעתי) להוסיף תרגיל לפרק (גם אם משהו קטן של שימוש ב PYMC3)</t>
   </si>
 </sst>
 </file>
@@ -578,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,6 +1170,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -1161,32 +1185,99 @@
       <c r="E23" s="2">
         <v>43999.332638888889</v>
       </c>
+      <c r="F23" s="2">
+        <v>43999.537499999999</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
       <c r="I23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43999.59097222222</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44000.605555555558</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44000.615972222222</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44004.611111111109</v>
+      </c>
+      <c r="G25">
+        <v>2.25</v>
+      </c>
+      <c r="H25">
+        <v>1.75</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>9</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>פרק</t>
   </si>
@@ -210,6 +210,22 @@
   <si>
     <t>עדיף להתחיל מקריאה של הבלוג פוסטים לפני שנכנסים לקריאה בספרים (שרובה הרגישה לא הכי חיונית). 
 אם אפשר כדאי (לדעתי) להוסיף תרגיל לפרק (גם אם משהו קטן של שימוש ב PYMC3)</t>
+  </si>
+  <si>
+    <t>קריאה+תרגיל</t>
+  </si>
+  <si>
+    <t>Data Mining 443-469
+Data Mining 483-491
+Star image exercise
+Another exercise (P-DBSCAN)</t>
+  </si>
+  <si>
+    <t>הכותרות לא מתאימות לתתי הפרקים (בפרק של DBSCAN קוראים על כמה שיטות Density based וכו')
+חסר קובץ Data.csv
+במאמר מוצג אלגוריתם 1 (ולא שניים כמו שכתוב בהוראות), ונראה שהוא לא מתאים לדאטה שתואר בתרגיל (המאמר מניח שיש מידע בסגנון של "owner" בנוסף לפיצ'רים הרגילים)
+(דילגתי על החלק הזה של התרגיל בגלל הנ"ל)
+יכול להיות רעיון נחמד לתת לממש איזה אלגוריתם או שניים tough</t>
   </si>
 </sst>
 </file>
@@ -598,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,14 +1272,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>6</v>
+    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44005.381944444445</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44007.446527777778</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>פרק</t>
   </si>
@@ -224,8 +224,18 @@
     <t>הכותרות לא מתאימות לתתי הפרקים (בפרק של DBSCAN קוראים על כמה שיטות Density based וכו')
 חסר קובץ Data.csv
 במאמר מוצג אלגוריתם 1 (ולא שניים כמו שכתוב בהוראות), ונראה שהוא לא מתאים לדאטה שתואר בתרגיל (המאמר מניח שיש מידע בסגנון של "owner" בנוסף לפיצ'רים הרגילים)
-(דילגתי על החלק הזה של התרגיל בגלל הנ"ל)
+-דילגתי על החלק הזה של התרגיל בגלל הנ"ל-
 יכול להיות רעיון נחמד לתת לממש איזה אלגוריתם או שניים tough</t>
+  </si>
+  <si>
+    <t>אשכול שחקני פיפא</t>
+  </si>
+  <si>
+    <t>ביום חמישי (25.6) היו לי בעיות עם הנט-סטיק אז חזרתי לעבוד על הורדת מימדים
+רק החלק הראשון (unsupervised)</t>
+  </si>
+  <si>
+    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על semi supervised learning</t>
   </si>
 </sst>
 </file>
@@ -235,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +257,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,11 +286,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -282,9 +300,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -614,24 +636,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="66.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -677,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -694,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -711,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -734,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -757,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -780,7 +802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -803,7 +825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -826,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -849,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -875,7 +897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -901,7 +923,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -930,7 +952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -959,7 +981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1014,7 +1036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1043,7 +1065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1069,7 +1091,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1098,7 +1120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1127,7 +1149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1156,7 +1178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1185,7 +1207,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1214,7 +1236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1243,7 +1265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1289,29 +1311,72 @@
         <v>44005.381944444445</v>
       </c>
       <c r="F26" s="2">
-        <v>44007.446527777778</v>
+        <v>44007.46875</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44007.543749999997</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44011.431250000001</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1.25</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>פרק</t>
   </si>
@@ -236,6 +236,13 @@
   </si>
   <si>
     <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על semi supervised learning</t>
+  </si>
+  <si>
+    <t>6/30/2020 6/29/20 10:21</t>
+  </si>
+  <si>
+    <t>בלוגפוסט שווה אחוששלוקי https://ruder.io/semi-supervised/
+לדעתי, הנושא הזה צריך לבוא אחרי הפרק של רשתות כי יש שיטות שרלוונטיות בעיקר לזה. בכלל, הנושא הזה יותר מתאים לתמונות.</t>
   </si>
 </sst>
 </file>
@@ -637,7 +644,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1352,7 +1359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1364,6 +1371,21 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44011.447916666664</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>פרק</t>
   </si>
@@ -238,11 +238,22 @@
     <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על semi supervised learning</t>
   </si>
   <si>
-    <t>6/30/2020 6/29/20 10:21</t>
-  </si>
-  <si>
     <t>בלוגפוסט שווה אחוששלוקי https://ruder.io/semi-supervised/
 לדעתי, הנושא הזה צריך לבוא אחרי הפרק של רשתות כי יש שיטות שרלוונטיות בעיקר לזה. בכלל, הנושא הזה יותר מתאים לתמונות.</t>
+  </si>
+  <si>
+    <t>6/30/2020  15:34:00 AM</t>
+  </si>
+  <si>
+    <t>החלק השני של המטלה, בעיקר שיחקתי עם semi supervised
+עבדתי על זה רק בשעות "קשות" של אחרי אוכל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לקרוא time series guide 
+</t>
+  </si>
+  <si>
+    <t>ההוראות של הפרק לא מסודרות (כפי שהן מעידות על עצמן)</t>
   </si>
 </sst>
 </file>
@@ -641,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,8 +1386,8 @@
       <c r="E28" s="2">
         <v>44011.447916666664</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>62</v>
+      <c r="F28" s="2">
+        <v>44012.431250000001</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1385,21 +1396,61 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="I29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44013.375</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>9</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>פרק</t>
   </si>
@@ -249,11 +249,46 @@
 עבדתי על זה רק בשעות "קשות" של אחרי אוכל</t>
   </si>
   <si>
-    <t xml:space="preserve">לקרוא time series guide 
-</t>
-  </si>
-  <si>
-    <t>ההוראות של הפרק לא מסודרות (כפי שהן מעידות על עצמן)</t>
+    <t>חיזוי צריכת דלק של מטוסים (מהגיט)</t>
+  </si>
+  <si>
+    <t>לקרוא time series guide 
+לקרוא על ARIMA מאיפשהו</t>
+  </si>
+  <si>
+    <t>ה HTML מאד פרקטי, בקטע טוב (לדעתי)
+לא ברור מה לקרוא על ARIMA (קראתי דברי לבד)
+קישורים שאהבתי: https://www.machinelearningplus.com/time-series/arima-model-time-series-forecasting-python/#:~:text=ARIMA%2C%20short%20for%20'Auto%20Regressive,used%20to%20forecast%20future%20values. 
+https://machinelearningmastery.com/gentle-introduction-autocorrelation-partial-autocorrelation/
+הערה כללית: ההוראות של הפרק לא מסודרות (כפי שהן מעידות על עצמן)</t>
+  </si>
+  <si>
+    <t>עבדתי במקביל לקריאה</t>
+  </si>
+  <si>
+    <t>https://medium.com/sho-jp/fourier-transform-101-part-1-b69ea3cb4837
+https://medium.com/sho-jp/fourier-transform-101-part-2-complex-fourier-series-934a885b3921
+https://medium.com/sho-jp/fourier-transform-101-part-3-fourier-transform-6def0bd2ca9b
+https://medium.com/sho-jp/fourier-transform-101-part-4-discrete-fourier-transform-8fc3fbb763f3
+מצגת</t>
+  </si>
+  <si>
+    <t>בגלל שאין תרגיל קשה להבין את רמת ההבנה הנדרשת (האם הבלוג מספיק? לראות את ההרצאות? לחפש עוד באינטרנט?)
+למצגת אין ערך רב כי אין כלום ב notes והמצגת עצמה מורכבת בעיקר מתמונות. אולי כדאי לתמלל את התוכן שהועבר איתה.</t>
+  </si>
+  <si>
+    <t>סרטונים</t>
+  </si>
+  <si>
+    <t>שלושת הקורסים הראשונים של אנדרו</t>
+  </si>
+  <si>
+    <t>קורס 4 של אנדרו</t>
+  </si>
+  <si>
+    <t>סיכום של הקורסים: https://github.com/mbadry1/DeepLearning.ai-Summary
+סיכום מאויר של הקורסים: https://www.slideshare.net/TessFerrandez/notes-from-coursera-deep-learning-courses-by-andrew-ng
+אולי הבעיה אצלי אבל הסרטונים נמוכה ולעפמים אי אפשר לקרוא את מה שהוא כותב</t>
   </si>
 </sst>
 </file>
@@ -654,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1415,11 +1450,20 @@
       <c r="E29" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="F29" s="2">
+        <v>44013.570833333331</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1430,26 +1474,129 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2">
         <v>44013.375</v>
       </c>
-      <c r="I30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F30" s="2">
+        <v>44014.541666666664</v>
+      </c>
+      <c r="G30">
+        <v>1.5</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44013.375</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44014.541666666664</v>
+      </c>
+      <c r="G31">
+        <v>1.5</v>
+      </c>
+      <c r="H31">
+        <v>0.25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44014.55972222222</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44014.642361111109</v>
+      </c>
+      <c r="G32">
+        <v>0.25</v>
+      </c>
+      <c r="H32">
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44014.671527777777</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44019.604166666664</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2.5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>פרק</t>
   </si>
@@ -289,6 +289,25 @@
     <t>סיכום של הקורסים: https://github.com/mbadry1/DeepLearning.ai-Summary
 סיכום מאויר של הקורסים: https://www.slideshare.net/TessFerrandez/notes-from-coursera-deep-learning-courses-by-andrew-ng
 אולי הבעיה אצלי אבל הסרטונים נמוכה ולעפמים אי אפשר לקרוא את מה שהוא כותב</t>
+  </si>
+  <si>
+    <t>מחברת של קובי</t>
+  </si>
+  <si>
+    <t>מחברת של קובי+תוספות של כהנא על ignite, dataloaders, tensorboard</t>
+  </si>
+  <si>
+    <t>7/10/2020 17:00 PM</t>
+  </si>
+  <si>
+    <t>דווח רטרו
+את הרוב ראיתי בסופ"ש (תורנות) אז קשה לשערך זמן עבודה נטו
+בוצע במקביל למחברת של קובי</t>
+  </si>
+  <si>
+    <t>דווח רטרו
+רוב הזמן הלך על המשימות מכהנא, המחברת של קובי היא עבודה ליום אחד
+לקחת בעירבון מוגבל את הזמנים (בעיקר נטו) של המשימה הזו</t>
   </si>
 </sst>
 </file>
@@ -689,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1579,21 +1598,62 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44020.643750000003</v>
+      </c>
+      <c r="F34" s="2">
+        <v>44026.560416666667</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>3.5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="2">
-        <v>44019</v>
+      <c r="E35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44026.604166666664</v>
+      </c>
+      <c r="G35">
+        <v>1.5</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
   <si>
     <t>פרק</t>
   </si>
@@ -308,6 +308,23 @@
     <t>דווח רטרו
 רוב הזמן הלך על המשימות מכהנא, המחברת של קובי היא עבודה ליום אחד
 לקחת בעירבון מוגבל את הזמנים (בעיקר נטו) של המשימה הזו</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>סיווג XRAY</t>
+  </si>
+  <si>
+    <t>קורס 5 של אנדרו</t>
+  </si>
+  <si>
+    <t>הרבה זמן על מימוש ומשחק עם מודולים חדשים
+אם המטרה של התרגיל היא להרגיש "בידיים" איך משתמשים ברשתות אז לציין את זה מראש
+בשלב מסויים מיקבלתי עם קורס 5 של אנדרו</t>
+  </si>
+  <si>
+    <t>בוצע במקביל לתרגיל XRAY</t>
   </si>
 </sst>
 </file>
@@ -706,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1656,9 +1673,62 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44027.370138888888</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44032.502083333333</v>
+      </c>
+      <c r="G36">
+        <v>3.5</v>
+      </c>
+      <c r="H36">
+        <v>2.75</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44031.698611111111</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44032.65625</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6970"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>פרק</t>
   </si>
@@ -325,6 +325,13 @@
   </si>
   <si>
     <t>בוצע במקביל לתרגיל XRAY</t>
+  </si>
+  <si>
+    <t>סיווג סוגי קרקע (time series)</t>
+  </si>
+  <si>
+    <t>הייתי צריך 3 ימים כדי להבין שהדאטה הוא כמה קטעי סיגנלים שחתכו לחלקים בגודל 128
+LSTM לא עובד לי כל כך והרבה זמן (~1.5 ימים נטו הלכו לי על לנסות לתפעל את זה)</t>
   </si>
 </sst>
 </file>
@@ -723,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1731,6 +1738,26 @@
         <v>84</v>
       </c>
     </row>
+    <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44032.720833333333</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" display="https://quantdare.com/isolation-forest-algorithm/_x000a_"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>פרק</t>
   </si>
@@ -331,7 +331,21 @@
   </si>
   <si>
     <t>הייתי צריך 3 ימים כדי להבין שהדאטה הוא כמה קטעי סיגנלים שחתכו לחלקים בגודל 128
-LSTM לא עובד לי כל כך והרבה זמן (~1.5 ימים נטו הלכו לי על לנסות לתפעל את זה)</t>
+LSTM לא עובד לי כל כך והרבה זמן (~1.5 ימים נטו הלכו לי על לנסות לתפעל את זה)
+ב-30.7 עשיתי הפסקה מתודית בשביל סקירות ספרות</t>
+  </si>
+  <si>
+    <t>חפיפה גדולה עם הפרק על עצים</t>
+  </si>
+  <si>
+    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על ensemble learning</t>
+  </si>
+  <si>
+    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על unbalanced dataset</t>
+  </si>
+  <si>
+    <t>לכוון לנושאים יותר ספציפיים כי תמיד מגיעים לאותן 2.5 שיטות לטיפול בבעיה.
+רלוונטי לכל הסקירות: להוסיף אותן במקומות ספציפייים בהכשרה (בשלב הזה זה מרגיש מאוחר מדי)</t>
   </si>
 </sst>
 </file>
@@ -730,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1738,7 +1752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1756,6 +1770,64 @@
       </c>
       <c r="I38" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44042.367361111108</v>
+      </c>
+      <c r="F39" s="2">
+        <v>44042.462500000001</v>
+      </c>
+      <c r="G39">
+        <v>0.25</v>
+      </c>
+      <c r="H39">
+        <v>0.25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44042.502083333333</v>
+      </c>
+      <c r="F40" s="2">
+        <v>44042.64166666667</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+      <c r="H40">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6970"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="6380"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
   <si>
     <t>פרק</t>
   </si>
@@ -346,6 +346,16 @@
   <si>
     <t>לכוון לנושאים יותר ספציפיים כי תמיד מגיעים לאותן 2.5 שיטות לטיפול בבעיה.
 רלוונטי לכל הסקירות: להוסיף אותן במקומות ספציפייים בהכשרה (בשלב הזה זה מרגיש מאוחר מדי)</t>
+  </si>
+  <si>
+    <t>נושא יחסית גנרי (או שלא הבנתי טוב)
+פוסט נחמד בנושא https://www.kaggle.com/residentmario/automated-feature-selection-with-sklearn</t>
+  </si>
+  <si>
+    <t>7/30/2020 16:00 PM</t>
+  </si>
+  <si>
+    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על בחירת פיצ'רים</t>
   </si>
 </sst>
 </file>
@@ -744,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1830,6 +1840,35 @@
         <v>90</v>
       </c>
     </row>
+    <row r="41" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44042.816666666666</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" display="https://quantdare.com/isolation-forest-algorithm/_x000a_"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -348,14 +348,15 @@
 רלוונטי לכל הסקירות: להוסיף אותן במקומות ספציפייים בהכשרה (בשלב הזה זה מרגיש מאוחר מדי)</t>
   </si>
   <si>
+    <t>7/30/2020 16:00 PM</t>
+  </si>
+  <si>
+    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על בחירת פיצ'רים</t>
+  </si>
+  <si>
     <t>נושא יחסית גנרי (או שלא הבנתי טוב)
-פוסט נחמד בנושא https://www.kaggle.com/residentmario/automated-feature-selection-with-sklearn</t>
-  </si>
-  <si>
-    <t>7/30/2020 16:00 PM</t>
-  </si>
-  <si>
-    <t>לקרוא, לחקור, לסכם, להשוות, לשאול שאלות, למצוא תשובות על בחירת פיצ'רים</t>
+פוסט נחמד בנושא https://www.kaggle.com/residentmario/automated-feature-selection-with-sklearn
+הסבר טוב על featuretools https://towardsdatascience.com/automated-feature-engineering-in-python-99baf11cc219</t>
   </si>
 </sst>
 </file>
@@ -756,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1840,7 +1841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1851,22 +1852,22 @@
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44045.739583333336</v>
+      </c>
+      <c r="G41">
+        <v>1.5</v>
+      </c>
+      <c r="H41">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="2">
-        <v>44042.816666666666</v>
-      </c>
-      <c r="G41">
-        <v>0.5</v>
-      </c>
-      <c r="H41">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -758,7 +758,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D38" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1864,7 +1864,7 @@
         <v>1.5</v>
       </c>
       <c r="H41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>93</v>
